--- a/biology/Zoologie/Haetera/Haetera.xlsx
+++ b/biology/Zoologie/Haetera/Haetera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Haetera   est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, tribu des Haeterini.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décrit par l'entomologiste danois Johan Christian Fabricius  en 1807[1]
-L'espèce type est Papilio piera (Linné)
-Synonymie
-Oreas (Hübner, 1807)[2]
-Maniola (Rafinesque, 1815) attention le genre Maniola (Schrank, 1801) existe.
-Hetaera (Hoffmannsegg, 1818)[3]
-Pselna (Billberg, 1820)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décrit par l'entomologiste danois Johan Christian Fabricius  en 1807
+L'espèce type est Papilio piera (Linné)</t>
         </is>
       </c>
     </row>
@@ -544,12 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oreas (Hübner, 1807)
+Maniola (Rafinesque, 1815) attention le genre Maniola (Schrank, 1801) existe.
+Hetaera (Hoffmannsegg, 1818)
+Pselna (Billberg, 1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haetera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des espèces[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des espèces
 Haetera macleannania (Bates, 1865)
 Haetera piera (Linné, 1758)</t>
         </is>
